--- a/data/trans_orig/P1421-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA12C5F9-B71E-4CF5-AA32-0B4504B4E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2226CF-AB81-4205-9E33-3B165BC1D415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA451855-DE1F-475D-8AA5-C06718B4A6C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D90357BC-9310-4637-8B6A-BE819BF128DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="628">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1825 +95,1834 @@
     <t>3,31%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>89,63%</t>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA855393-D782-49F1-98C8-2E78033A5DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94573927-ACD6-4A2A-9EE6-8893200E4938}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3739,10 +3748,10 @@
         <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -3751,13 +3760,13 @@
         <v>24970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -3766,10 +3775,10 @@
         <v>35946</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>154</v>
@@ -3823,7 +3832,7 @@
         <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,7 +3888,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3927,7 +3936,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,7 +3951,7 @@
         <v>29515</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>165</v>
@@ -3960,10 +3969,10 @@
         <v>167</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M33" s="7">
         <v>88</v>
@@ -3972,13 +3981,13 @@
         <v>90151</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4002,13 @@
         <v>714280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H34" s="7">
         <v>687</v>
@@ -4008,13 +4017,13 @@
         <v>722875</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>1393</v>
@@ -4023,13 +4032,13 @@
         <v>1437155</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4118,7 +4127,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4133,7 +4142,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4157,13 @@
         <v>78472</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="H37" s="7">
         <v>189</v>
@@ -4163,13 +4172,13 @@
         <v>194900</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M37" s="7">
         <v>267</v>
@@ -4178,13 +4187,13 @@
         <v>273372</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4208,13 @@
         <v>3198072</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H38" s="7">
         <v>3108</v>
@@ -4214,28 +4223,28 @@
         <v>3184298</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M38" s="7">
         <v>6244</v>
       </c>
       <c r="N38" s="7">
-        <v>6382368</v>
+        <v>6382369</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,7 +4286,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4291,7 +4300,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB9F822-F481-4138-B2C4-D22E0B50FD00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B46E7B-1DDB-4CBD-AF73-EEA7FCE8360C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4332,7 +4341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4437,39 +4446,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,39 +4491,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,39 +4536,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,39 +4581,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4672,13 +4681,13 @@
         <v>4961</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -4687,13 +4696,13 @@
         <v>24853</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -4702,13 +4711,13 @@
         <v>29815</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4732,13 @@
         <v>500566</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>457</v>
@@ -4738,13 +4747,13 @@
         <v>498912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>925</v>
@@ -4753,13 +4762,13 @@
         <v>999477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,7 +4842,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4848,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4878,13 +4887,13 @@
         <v>4725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4893,13 +4902,13 @@
         <v>13948</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4908,13 +4917,13 @@
         <v>18672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,13 +4938,13 @@
         <v>319321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>304</v>
@@ -4944,13 +4953,13 @@
         <v>327072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>618</v>
@@ -4959,13 +4968,13 @@
         <v>646394</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5093,13 @@
         <v>11075</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -5099,13 +5108,13 @@
         <v>58903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -5114,13 +5123,13 @@
         <v>69978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,13 +5144,13 @@
         <v>657645</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
         <v>573</v>
@@ -5150,13 +5159,13 @@
         <v>617293</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>1188</v>
@@ -5165,13 +5174,13 @@
         <v>1274938</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5254,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5260,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5290,13 +5299,13 @@
         <v>2203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -5305,13 +5314,13 @@
         <v>22282</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -5320,13 +5329,13 @@
         <v>24485</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5350,13 @@
         <v>210415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -5356,13 +5365,13 @@
         <v>197309</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>384</v>
@@ -5371,13 +5380,13 @@
         <v>407724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,7 +5460,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5496,13 +5505,13 @@
         <v>5112</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5511,13 +5520,13 @@
         <v>13008</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -5526,13 +5535,13 @@
         <v>18120</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5556,13 @@
         <v>268869</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>255</v>
@@ -5562,13 +5571,13 @@
         <v>265088</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="M26" s="7">
         <v>511</v>
@@ -5577,13 +5586,13 @@
         <v>533957</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,7 +5696,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5711,13 @@
         <v>9213</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -5717,13 +5726,13 @@
         <v>30706</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -5732,13 +5741,13 @@
         <v>39919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5762,13 @@
         <v>653575</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="H30" s="7">
         <v>608</v>
@@ -5768,13 +5777,13 @@
         <v>663147</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M30" s="7">
         <v>1217</v>
@@ -5783,13 +5792,13 @@
         <v>1316722</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>294</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,7 +5854,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5863,7 +5872,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5878,7 +5887,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5893,7 +5902,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5917,13 @@
         <v>3996</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -5923,13 +5932,13 @@
         <v>26057</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -5938,13 +5947,13 @@
         <v>30053</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5968,13 @@
         <v>774072</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="H34" s="7">
         <v>732</v>
@@ -5974,13 +5983,13 @@
         <v>796521</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="M34" s="7">
         <v>1444</v>
@@ -5989,13 +5998,13 @@
         <v>1570593</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6084,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6099,7 +6108,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6123,13 @@
         <v>41286</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="H37" s="7">
         <v>177</v>
@@ -6129,13 +6138,13 @@
         <v>189757</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="M37" s="7">
         <v>217</v>
@@ -6147,10 +6156,10 @@
         <v>17</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6174,13 @@
         <v>3384462</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H38" s="7">
         <v>3119</v>
@@ -6180,28 +6189,28 @@
         <v>3365341</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="M38" s="7">
         <v>6287</v>
       </c>
       <c r="N38" s="7">
-        <v>6749803</v>
+        <v>6749804</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>327</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,7 +6252,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980846</v>
+        <v>6980847</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6257,7 +6266,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6281,7 +6290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725F411-6CAA-4419-AB10-07EA3FCCC313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E92D292-0A89-40C4-9F23-733F91878784}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6298,7 +6307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6426,7 +6435,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6441,7 +6450,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6465,13 @@
         <v>3201</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -6471,13 +6480,13 @@
         <v>26046</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -6486,13 +6495,13 @@
         <v>29247</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,13 +6516,13 @@
         <v>290560</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H6" s="7">
         <v>253</v>
@@ -6522,13 +6531,13 @@
         <v>262657</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7">
         <v>516</v>
@@ -6537,13 +6546,13 @@
         <v>553217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,7 +6626,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6632,7 +6641,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6662,13 +6671,13 @@
         <v>2901</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -6677,13 +6686,13 @@
         <v>17876</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -6692,13 +6701,13 @@
         <v>20778</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,13 +6722,13 @@
         <v>499674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>467</v>
@@ -6728,13 +6737,13 @@
         <v>505208</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>939</v>
@@ -6743,13 +6752,13 @@
         <v>1004881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,7 +6847,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6853,7 +6862,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6877,13 @@
         <v>935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -6883,13 +6892,13 @@
         <v>12704</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -6898,13 +6907,13 @@
         <v>13638</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6928,13 @@
         <v>317630</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>320</v>
@@ -6934,13 +6943,13 @@
         <v>323605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>654</v>
@@ -6949,10 +6958,10 @@
         <v>641236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>375</v>
@@ -7059,7 +7068,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,7 +7086,7 @@
         <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>378</v>
@@ -7107,10 +7116,10 @@
         <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7134,13 @@
         <v>362974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="H18" s="7">
         <v>333</v>
@@ -7140,13 +7149,13 @@
         <v>357983</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M18" s="7">
         <v>680</v>
@@ -7158,10 +7167,10 @@
         <v>141</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,7 +7244,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7250,7 +7259,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7265,7 +7274,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7289,13 @@
         <v>4751</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7295,13 +7304,13 @@
         <v>19123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -7310,13 +7319,13 @@
         <v>23874</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7340,13 @@
         <v>206470</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -7346,13 +7355,13 @@
         <v>199464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>411</v>
@@ -7361,13 +7370,13 @@
         <v>405934</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,7 +7450,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7456,7 +7465,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7486,13 +7495,13 @@
         <v>5759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -7501,13 +7510,13 @@
         <v>16225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>25</v>
+        <v>413</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>410</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -7516,13 +7525,13 @@
         <v>21984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7546,13 @@
         <v>257364</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H26" s="7">
         <v>248</v>
@@ -7552,13 +7561,13 @@
         <v>256890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>34</v>
+        <v>420</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M26" s="7">
         <v>502</v>
@@ -7567,13 +7576,13 @@
         <v>514254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>419</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,7 +7656,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7692,13 +7701,13 @@
         <v>14569</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -7707,13 +7716,13 @@
         <v>40156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>186</v>
+        <v>428</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -7722,13 +7731,13 @@
         <v>54725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,13 +7752,13 @@
         <v>641989</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>313</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7">
         <v>609</v>
@@ -7758,13 +7767,13 @@
         <v>651138</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>437</v>
       </c>
       <c r="M30" s="7">
         <v>1176</v>
@@ -7773,13 +7782,13 @@
         <v>1293127</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,7 +7844,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7868,7 +7877,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7883,7 +7892,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7907,13 @@
         <v>8769</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H33" s="7">
         <v>29</v>
@@ -7913,13 +7922,13 @@
         <v>33268</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M33" s="7">
         <v>38</v>
@@ -7928,13 +7937,13 @@
         <v>42038</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7958,13 @@
         <v>769814</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="H34" s="7">
         <v>726</v>
@@ -7964,13 +7973,13 @@
         <v>792899</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M34" s="7">
         <v>1467</v>
@@ -7979,13 +7988,13 @@
         <v>1562712</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,7 +8068,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8074,7 +8083,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8089,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8113,13 @@
         <v>47875</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>454</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="H37" s="7">
         <v>178</v>
@@ -8119,13 +8128,13 @@
         <v>194699</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
       <c r="M37" s="7">
         <v>224</v>
@@ -8134,13 +8143,13 @@
         <v>242574</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>458</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8164,13 @@
         <v>3346475</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>460</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>3160</v>
@@ -8170,13 +8179,13 @@
         <v>3349843</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>372</v>
+        <v>466</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M38" s="7">
         <v>6345</v>
@@ -8185,13 +8194,13 @@
         <v>6696318</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>463</v>
+        <v>173</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,7 +8256,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8271,7 +8280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42607523-B213-4964-AB06-6AFC9279A00A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA1CD66-86B4-469C-8EAD-7B2E8B4C9CAC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8288,7 +8297,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8401,7 +8410,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8446,13 +8455,13 @@
         <v>9483</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>470</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -8461,13 +8470,13 @@
         <v>30204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -8476,13 +8485,13 @@
         <v>39687</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8497,13 +8506,13 @@
         <v>250815</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>479</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H6" s="7">
         <v>476</v>
@@ -8512,13 +8521,13 @@
         <v>241199</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -8527,13 +8536,13 @@
         <v>492013</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8622,7 +8631,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8637,7 +8646,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8652,13 +8661,13 @@
         <v>34814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -8667,13 +8676,13 @@
         <v>77884</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M9" s="7">
         <v>122</v>
@@ -8682,13 +8691,13 @@
         <v>112698</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8703,13 +8712,13 @@
         <v>483413</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H10" s="7">
         <v>620</v>
@@ -8718,28 +8727,28 @@
         <v>475160</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M10" s="7">
         <v>974</v>
       </c>
       <c r="N10" s="7">
-        <v>958573</v>
+        <v>958572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8781,7 +8790,7 @@
         <v>1096</v>
       </c>
       <c r="N11" s="7">
-        <v>1071271</v>
+        <v>1071270</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -8843,7 +8852,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8858,13 +8867,13 @@
         <v>15683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -8873,13 +8882,13 @@
         <v>45376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -8888,13 +8897,13 @@
         <v>61059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8909,13 +8918,13 @@
         <v>306397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="H14" s="7">
         <v>472</v>
@@ -8924,13 +8933,13 @@
         <v>327908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M14" s="7">
         <v>813</v>
@@ -8939,13 +8948,13 @@
         <v>634305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9019,7 +9028,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9064,13 +9073,13 @@
         <v>7651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>518</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>441</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -9079,13 +9088,13 @@
         <v>26880</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>520</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -9094,13 +9103,13 @@
         <v>34531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>523</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9115,13 +9124,13 @@
         <v>314589</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>525</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="H18" s="7">
         <v>552</v>
@@ -9130,13 +9139,13 @@
         <v>401676</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>527</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>534</v>
       </c>
       <c r="M18" s="7">
         <v>835</v>
@@ -9145,13 +9154,13 @@
         <v>716265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>531</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9225,7 +9234,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9234,13 +9243,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>538</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9249,13 +9258,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,13 +9279,13 @@
         <v>10701</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>391</v>
+        <v>543</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -9285,13 +9294,13 @@
         <v>27909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -9300,13 +9309,13 @@
         <v>38610</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9321,13 +9330,13 @@
         <v>186047</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>399</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>434</v>
@@ -9336,13 +9345,13 @@
         <v>203587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>699</v>
@@ -9351,13 +9360,13 @@
         <v>389633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9431,7 +9440,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>550</v>
+        <v>442</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9446,7 +9455,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9455,13 +9464,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>265</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9476,13 +9485,13 @@
         <v>17983</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>552</v>
+        <v>262</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -9491,13 +9500,13 @@
         <v>40306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -9506,13 +9515,13 @@
         <v>58289</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9527,13 +9536,13 @@
         <v>259240</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>561</v>
+        <v>271</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
@@ -9542,13 +9551,13 @@
         <v>234599</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="M26" s="7">
         <v>734</v>
@@ -9557,13 +9566,13 @@
         <v>493838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9667,7 +9676,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9682,13 +9691,13 @@
         <v>47913</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -9697,13 +9706,13 @@
         <v>117800</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>205</v>
@@ -9712,13 +9721,13 @@
         <v>165713</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9733,13 +9742,13 @@
         <v>577961</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="H30" s="7">
         <v>792</v>
@@ -9748,13 +9757,13 @@
         <v>684053</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="M30" s="7">
         <v>1348</v>
@@ -9763,13 +9772,13 @@
         <v>1262013</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9825,7 +9834,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9843,7 +9852,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9858,7 +9867,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9873,7 +9882,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>517</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9888,13 +9897,13 @@
         <v>11446</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>591</v>
+        <v>277</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H33" s="7">
         <v>56</v>
@@ -9903,13 +9912,13 @@
         <v>52027</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="M33" s="7">
         <v>67</v>
@@ -9918,13 +9927,13 @@
         <v>63473</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>596</v>
+        <v>107</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>597</v>
+        <v>165</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9939,13 +9948,13 @@
         <v>847982</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>601</v>
+        <v>287</v>
       </c>
       <c r="H34" s="7">
         <v>1005</v>
@@ -9954,13 +9963,13 @@
         <v>813645</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="M34" s="7">
         <v>1756</v>
@@ -9969,13 +9978,13 @@
         <v>1661627</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10049,7 +10058,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10061,10 +10070,10 @@
         <v>41</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10073,13 +10082,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>106</v>
+        <v>392</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10094,13 +10103,13 @@
         <v>155675</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H37" s="7">
         <v>615</v>
@@ -10109,13 +10118,13 @@
         <v>418386</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M37" s="7">
         <v>771</v>
@@ -10124,13 +10133,13 @@
         <v>574061</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10145,13 +10154,13 @@
         <v>3226442</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H38" s="7">
         <v>4740</v>
@@ -10160,13 +10169,13 @@
         <v>3381826</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M38" s="7">
         <v>7956</v>
@@ -10175,13 +10184,13 @@
         <v>6608269</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10237,7 +10246,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1421-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2226CF-AB81-4205-9E33-3B165BC1D415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32EC860F-EA00-4959-A244-5CCD3E9D4A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D90357BC-9310-4637-8B6A-BE819BF128DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F648230-3148-4F07-BF71-64096AFF43E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="624">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1761 +95,1752 @@
     <t>3,31%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
     <t>93,69%</t>
   </si>
   <si>
@@ -1872,9 +1863,6 @@
   </si>
   <si>
     <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
   </si>
   <si>
     <t>3,89%</t>
@@ -2334,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94573927-ACD6-4A2A-9EE6-8893200E4938}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AC862F-9526-4603-8844-309513385492}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3160,10 +3148,10 @@
         <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3166,13 @@
         <v>352289</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>368</v>
@@ -3196,10 +3184,10 @@
         <v>75</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>724</v>
@@ -3208,13 +3196,13 @@
         <v>708104</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,7 +3258,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3288,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3303,7 +3291,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3318,7 +3306,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3321,13 @@
         <v>2805</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3348,13 +3336,13 @@
         <v>6131</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -3363,13 +3351,13 @@
         <v>8936</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3372,13 @@
         <v>200503</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -3399,13 +3387,13 @@
         <v>201537</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>395</v>
@@ -3414,13 +3402,13 @@
         <v>402040</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,7 +3464,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3494,7 +3482,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3524,7 +3512,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3527,13 @@
         <v>9336</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -3554,13 +3542,13 @@
         <v>16977</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -3569,13 +3557,13 @@
         <v>26313</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3578,13 @@
         <v>261475</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>253</v>
@@ -3605,13 +3593,13 @@
         <v>261167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>510</v>
@@ -3620,13 +3608,13 @@
         <v>522642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,7 +3670,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3700,7 +3688,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3715,7 +3703,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3730,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,10 +3736,10 @@
         <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -3760,13 +3748,13 @@
         <v>24970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -3775,13 +3763,13 @@
         <v>35946</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3784,13 @@
         <v>604052</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>597</v>
@@ -3811,13 +3799,13 @@
         <v>613249</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M30" s="7">
         <v>1184</v>
@@ -3826,13 +3814,13 @@
         <v>1217300</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3876,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3936,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3939,13 @@
         <v>29515</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H33" s="7">
         <v>58</v>
@@ -3966,13 +3954,13 @@
         <v>60636</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M33" s="7">
         <v>88</v>
@@ -3981,13 +3969,13 @@
         <v>90151</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3990,13 @@
         <v>714280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H34" s="7">
         <v>687</v>
@@ -4017,13 +4005,13 @@
         <v>722875</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M34" s="7">
         <v>1393</v>
@@ -4032,13 +4020,13 @@
         <v>1437155</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4127,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4142,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4145,13 @@
         <v>78472</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H37" s="7">
         <v>189</v>
@@ -4172,13 +4160,13 @@
         <v>194900</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>267</v>
@@ -4187,13 +4175,13 @@
         <v>273372</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,16 +4193,16 @@
         <v>3136</v>
       </c>
       <c r="D38" s="7">
-        <v>3198072</v>
+        <v>3198071</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H38" s="7">
         <v>3108</v>
@@ -4223,13 +4211,13 @@
         <v>3184298</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M38" s="7">
         <v>6244</v>
@@ -4238,13 +4226,13 @@
         <v>6382369</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,7 +4244,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4300,7 +4288,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4324,7 +4312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B46E7B-1DDB-4CBD-AF73-EEA7FCE8360C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3633B0D5-81EF-4BC7-BD55-8AE937325669}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4341,7 +4329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4446,39 +4434,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,39 +4479,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,39 +4524,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,39 +4569,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,7 +4639,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4681,13 +4669,13 @@
         <v>4961</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -4696,13 +4684,13 @@
         <v>24853</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -4711,13 +4699,13 @@
         <v>29815</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4720,13 @@
         <v>500566</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>457</v>
@@ -4747,13 +4735,13 @@
         <v>498912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>925</v>
@@ -4762,13 +4750,13 @@
         <v>999477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,7 +4830,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4857,7 +4845,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4887,13 +4875,13 @@
         <v>4725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4902,13 +4890,13 @@
         <v>13948</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4917,13 +4905,13 @@
         <v>18672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4926,13 @@
         <v>319321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>304</v>
@@ -4953,13 +4941,13 @@
         <v>327072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>618</v>
@@ -4968,13 +4956,13 @@
         <v>646394</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,7 +5036,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5063,7 +5051,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5078,7 +5066,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5081,13 @@
         <v>11075</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -5108,13 +5096,13 @@
         <v>58903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -5123,13 +5111,13 @@
         <v>69978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5132,13 @@
         <v>657645</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
         <v>573</v>
@@ -5159,13 +5147,13 @@
         <v>617293</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>1188</v>
@@ -5174,13 +5162,13 @@
         <v>1274938</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,7 +5224,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5254,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5269,7 +5257,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5284,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5287,13 @@
         <v>2203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -5314,13 +5302,13 @@
         <v>22282</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -5329,13 +5317,13 @@
         <v>24485</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5338,13 @@
         <v>210415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -5365,13 +5353,13 @@
         <v>197309</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>384</v>
@@ -5380,13 +5368,13 @@
         <v>407724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,7 +5430,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5460,7 +5448,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5490,7 +5478,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5493,13 @@
         <v>5112</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5520,13 +5508,13 @@
         <v>13008</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -5535,13 +5523,13 @@
         <v>18120</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5544,13 @@
         <v>268869</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>255</v>
@@ -5571,13 +5559,13 @@
         <v>265088</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>511</v>
@@ -5586,13 +5574,13 @@
         <v>533957</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,7 +5636,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5666,7 +5654,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5696,7 +5684,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5699,13 @@
         <v>9213</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -5726,13 +5714,13 @@
         <v>30706</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -5741,13 +5729,13 @@
         <v>39919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5750,13 @@
         <v>653575</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H30" s="7">
         <v>608</v>
@@ -5777,13 +5765,13 @@
         <v>663147</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M30" s="7">
         <v>1217</v>
@@ -5792,13 +5780,13 @@
         <v>1316722</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>307</v>
+        <v>93</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,7 +5842,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5872,7 +5860,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5887,7 +5875,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5902,7 +5890,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5905,13 @@
         <v>3996</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -5932,13 +5920,13 @@
         <v>26057</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -5947,13 +5935,13 @@
         <v>30053</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5956,13 @@
         <v>774072</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H34" s="7">
         <v>732</v>
@@ -5983,13 +5971,13 @@
         <v>796521</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M34" s="7">
         <v>1444</v>
@@ -5998,13 +5986,13 @@
         <v>1570593</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,7 +6066,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6093,7 +6081,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6108,7 +6096,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6111,13 @@
         <v>41286</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>177</v>
@@ -6138,13 +6126,13 @@
         <v>189757</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M37" s="7">
         <v>217</v>
@@ -6156,10 +6144,10 @@
         <v>17</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6162,13 @@
         <v>3384462</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H38" s="7">
         <v>3119</v>
@@ -6189,13 +6177,13 @@
         <v>3365341</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M38" s="7">
         <v>6287</v>
@@ -6207,10 +6195,10 @@
         <v>27</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,7 +6254,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6290,7 +6278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E92D292-0A89-40C4-9F23-733F91878784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34275F8-B432-49B5-981B-527A4482C4E6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6307,7 +6295,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6420,7 +6408,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6435,7 +6423,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6468,10 +6456,10 @@
         <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -6483,10 +6471,10 @@
         <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -6495,13 +6483,13 @@
         <v>29247</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,10 +6504,10 @@
         <v>290560</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>348</v>
@@ -6537,7 +6525,7 @@
         <v>350</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="M6" s="7">
         <v>516</v>
@@ -6546,13 +6534,13 @@
         <v>553217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,7 +6614,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6641,7 +6629,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6671,13 +6659,13 @@
         <v>2901</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -6686,13 +6674,13 @@
         <v>17876</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>357</v>
+        <v>63</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -6701,13 +6689,13 @@
         <v>20778</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,13 +6710,13 @@
         <v>499674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>467</v>
@@ -6737,13 +6725,13 @@
         <v>505208</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>939</v>
@@ -6752,13 +6740,13 @@
         <v>1004881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>321</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,7 +6835,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6862,7 +6850,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,13 +6865,13 @@
         <v>935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -6895,10 +6883,10 @@
         <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -6907,13 +6895,13 @@
         <v>13638</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6916,13 @@
         <v>317630</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>320</v>
@@ -6943,13 +6931,13 @@
         <v>323605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>654</v>
@@ -6958,13 +6946,13 @@
         <v>641236</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7068,7 +7056,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,13 +7071,13 @@
         <v>6990</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -7098,13 +7086,13 @@
         <v>29300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -7113,13 +7101,13 @@
         <v>36290</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,13 +7122,13 @@
         <v>362974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>333</v>
@@ -7149,13 +7137,13 @@
         <v>357983</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M18" s="7">
         <v>680</v>
@@ -7164,13 +7152,13 @@
         <v>720957</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,7 +7214,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7244,7 +7232,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7259,7 +7247,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7274,7 +7262,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7277,13 @@
         <v>4751</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7304,13 +7292,13 @@
         <v>19123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -7322,10 +7310,10 @@
         <v>398</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7328,13 @@
         <v>206470</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -7355,13 +7343,13 @@
         <v>199464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>411</v>
@@ -7370,13 +7358,13 @@
         <v>405934</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,7 +7420,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7450,7 +7438,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7465,7 +7453,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7495,13 +7483,13 @@
         <v>5759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>412</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -7516,7 +7504,7 @@
         <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>415</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -7525,13 +7513,13 @@
         <v>21984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>200</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>416</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,10 +7537,10 @@
         <v>417</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H26" s="7">
         <v>248</v>
@@ -7561,10 +7549,10 @@
         <v>256890</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>421</v>
@@ -7576,13 +7564,13 @@
         <v>514254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>422</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>423</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,7 +7626,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7656,7 +7644,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>424</v>
+        <v>340</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7686,7 +7674,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7689,13 @@
         <v>14569</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -7716,13 +7704,13 @@
         <v>40156</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -7731,13 +7719,13 @@
         <v>54725</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,13 +7740,13 @@
         <v>641989</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H30" s="7">
         <v>609</v>
@@ -7844,7 +7832,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7877,7 +7865,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7892,7 +7880,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,10 +7898,10 @@
         <v>441</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="H33" s="7">
         <v>29</v>
@@ -7922,13 +7910,13 @@
         <v>33268</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>444</v>
+        <v>242</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M33" s="7">
         <v>38</v>
@@ -7937,13 +7925,13 @@
         <v>42038</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>447</v>
+        <v>200</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>448</v>
+        <v>273</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,13 +7946,13 @@
         <v>769814</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="H34" s="7">
         <v>726</v>
@@ -7973,13 +7961,13 @@
         <v>792899</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>453</v>
+        <v>252</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>455</v>
+        <v>156</v>
       </c>
       <c r="M34" s="7">
         <v>1467</v>
@@ -7988,13 +7976,13 @@
         <v>1562712</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>458</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,7 +8056,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8083,7 +8071,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8098,7 +8086,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +8101,13 @@
         <v>47875</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>448</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>314</v>
+        <v>449</v>
       </c>
       <c r="H37" s="7">
         <v>178</v>
@@ -8128,13 +8116,13 @@
         <v>194699</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>461</v>
+        <v>168</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="M37" s="7">
         <v>224</v>
@@ -8143,13 +8131,13 @@
         <v>242574</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>164</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +8152,13 @@
         <v>3346475</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>322</v>
+        <v>456</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>457</v>
       </c>
       <c r="H38" s="7">
         <v>3160</v>
@@ -8179,13 +8167,13 @@
         <v>3349843</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>467</v>
+        <v>178</v>
       </c>
       <c r="M38" s="7">
         <v>6345</v>
@@ -8194,13 +8182,13 @@
         <v>6696318</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>173</v>
+        <v>461</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,7 +8244,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8280,7 +8268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA1CD66-86B4-469C-8EAD-7B2E8B4C9CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CC3EC7-D776-48DD-9E90-765553B7995A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8297,7 +8285,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8410,7 +8398,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8425,7 +8413,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8440,7 +8428,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,13 +8443,13 @@
         <v>9483</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -8470,13 +8458,13 @@
         <v>30204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -8485,13 +8473,13 @@
         <v>39687</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8506,13 +8494,13 @@
         <v>250815</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H6" s="7">
         <v>476</v>
@@ -8521,13 +8509,13 @@
         <v>241199</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -8536,13 +8524,13 @@
         <v>492013</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>487</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8631,7 +8619,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8646,7 +8634,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8661,13 +8649,13 @@
         <v>34814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -8676,13 +8664,13 @@
         <v>77884</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M9" s="7">
         <v>122</v>
@@ -8691,13 +8679,13 @@
         <v>112698</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8712,13 +8700,13 @@
         <v>483413</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H10" s="7">
         <v>620</v>
@@ -8727,13 +8715,13 @@
         <v>475160</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M10" s="7">
         <v>974</v>
@@ -8742,13 +8730,13 @@
         <v>958572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8837,7 +8825,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8852,7 +8840,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>507</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8867,13 +8855,13 @@
         <v>15683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>509</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -8882,13 +8870,13 @@
         <v>45376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -8897,13 +8885,13 @@
         <v>61059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8918,13 +8906,13 @@
         <v>306397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>472</v>
@@ -8933,13 +8921,13 @@
         <v>327908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="M14" s="7">
         <v>813</v>
@@ -8948,13 +8936,13 @@
         <v>634305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,7 +9016,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9043,7 +9031,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9058,7 +9046,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,13 +9061,13 @@
         <v>7651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>517</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>441</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -9088,13 +9076,13 @@
         <v>26880</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -9103,13 +9091,13 @@
         <v>34531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9124,13 +9112,13 @@
         <v>314589</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>524</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H18" s="7">
         <v>552</v>
@@ -9139,13 +9127,13 @@
         <v>401676</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M18" s="7">
         <v>835</v>
@@ -9154,13 +9142,13 @@
         <v>716265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>535</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>390</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9216,7 +9204,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9234,7 +9222,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9243,13 +9231,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9258,13 +9246,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9279,13 +9267,13 @@
         <v>10701</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -9294,13 +9282,13 @@
         <v>27909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -9309,13 +9297,13 @@
         <v>38610</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9330,13 +9318,13 @@
         <v>186047</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>434</v>
@@ -9345,13 +9333,13 @@
         <v>203587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
         <v>699</v>
@@ -9360,13 +9348,13 @@
         <v>389633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9422,7 +9410,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9440,7 +9428,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>442</v>
+        <v>552</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9455,7 +9443,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9464,13 +9452,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9485,13 +9473,13 @@
         <v>17983</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -9500,13 +9488,13 @@
         <v>40306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -9515,13 +9503,13 @@
         <v>58289</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9536,13 +9524,13 @@
         <v>259240</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
@@ -9551,13 +9539,13 @@
         <v>234599</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M26" s="7">
         <v>734</v>
@@ -9566,13 +9554,13 @@
         <v>493838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9628,7 +9616,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9646,7 +9634,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9676,7 +9664,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,13 +9679,13 @@
         <v>47913</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -9706,13 +9694,13 @@
         <v>117800</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M29" s="7">
         <v>205</v>
@@ -9721,13 +9709,13 @@
         <v>165713</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9742,13 +9730,13 @@
         <v>577961</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H30" s="7">
         <v>792</v>
@@ -9757,13 +9745,13 @@
         <v>684053</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="M30" s="7">
         <v>1348</v>
@@ -9772,13 +9760,13 @@
         <v>1262013</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9834,7 +9822,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9852,7 +9840,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9861,13 +9849,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9876,7 +9864,7 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
@@ -9897,13 +9885,13 @@
         <v>11446</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H33" s="7">
         <v>56</v>
@@ -9912,13 +9900,13 @@
         <v>52027</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>597</v>
+        <v>19</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M33" s="7">
         <v>67</v>
@@ -9927,13 +9915,13 @@
         <v>63473</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>107</v>
+        <v>594</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>165</v>
+        <v>595</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9948,13 +9936,13 @@
         <v>847982</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>287</v>
+        <v>599</v>
       </c>
       <c r="H34" s="7">
         <v>1005</v>
@@ -9963,13 +9951,13 @@
         <v>813645</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>535</v>
+        <v>403</v>
       </c>
       <c r="M34" s="7">
         <v>1756</v>
@@ -9978,13 +9966,13 @@
         <v>1661627</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10058,7 +10046,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10070,10 +10058,10 @@
         <v>41</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10082,13 +10070,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>611</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10103,13 +10091,13 @@
         <v>155675</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>530</v>
+        <v>396</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H37" s="7">
         <v>615</v>
@@ -10118,13 +10106,13 @@
         <v>418386</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M37" s="7">
         <v>771</v>
@@ -10133,13 +10121,13 @@
         <v>574061</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10154,13 +10142,13 @@
         <v>3226442</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>535</v>
+        <v>403</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H38" s="7">
         <v>4740</v>
@@ -10169,13 +10157,13 @@
         <v>3381826</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M38" s="7">
         <v>7956</v>
@@ -10184,13 +10172,13 @@
         <v>6608269</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10246,7 +10234,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1421-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23711DC4-BDFD-4CAB-8DD9-DE71C9F07C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9E66B84-C4F0-46B4-946C-BB06ADCB8625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B627C99F-F5AF-4EFE-9931-AF5F29BDCA48}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D2899F38-266B-4979-8593-42E222564CB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="578">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -557,7 +557,58 @@
     <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -644,1120 +695,1084 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>91,29%</t>
   </si>
   <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>89,44%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4B64F6-1965-495A-89EC-C1DE063EBE56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA779C3-721C-40C2-AC94-BEA93906657E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3581,7 +3596,7 @@
         <v>3136</v>
       </c>
       <c r="D29" s="7">
-        <v>3198072</v>
+        <v>3198071</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>163</v>
@@ -3596,7 +3611,7 @@
         <v>3108</v>
       </c>
       <c r="I29" s="7">
-        <v>3184298</v>
+        <v>3184297</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>165</v>
@@ -3611,7 +3626,7 @@
         <v>6244</v>
       </c>
       <c r="N29" s="7">
-        <v>6382368</v>
+        <v>6382369</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>168</v>
@@ -3632,7 +3647,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3647,7 +3662,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3662,7 +3677,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3700,7 +3715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3106AA11-A540-4CF0-9B11-E05ACF6A0F52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815B807C-BF27-40F5-BC29-15914CF12786}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3818,43 +3833,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4880</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>23559</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28439</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,43 +3884,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="D5" s="7">
+        <v>289858</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="I5" s="7">
+        <v>263686</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>512</v>
+      </c>
+      <c r="N5" s="7">
+        <v>553544</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,43 +3935,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3994,13 @@
         <v>4961</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3976,13 +4009,13 @@
         <v>24853</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3991,7 +4024,7 @@
         <v>29815</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>157</v>
@@ -4012,13 +4045,13 @@
         <v>500566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -4027,10 +4060,10 @@
         <v>498912</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>66</v>
@@ -4042,7 +4075,7 @@
         <v>999477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>63</v>
@@ -4116,13 +4149,13 @@
         <v>4725</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4131,13 +4164,13 @@
         <v>13948</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4146,10 +4179,10 @@
         <v>18672</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>53</v>
@@ -4167,13 +4200,13 @@
         <v>319321</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>304</v>
@@ -4182,13 +4215,13 @@
         <v>327072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>618</v>
@@ -4197,13 +4230,13 @@
         <v>646394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,49 +4298,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>11075</v>
+        <v>6195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>58903</v>
+        <v>35344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>69978</v>
+        <v>41539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,49 +4349,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>615</v>
+        <v>338</v>
       </c>
       <c r="D14" s="7">
-        <v>657645</v>
+        <v>367787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
-        <v>573</v>
+        <v>338</v>
       </c>
       <c r="I14" s="7">
-        <v>617293</v>
+        <v>353607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
-        <v>1188</v>
+        <v>676</v>
       </c>
       <c r="N14" s="7">
-        <v>1274938</v>
+        <v>721394</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,10 +4400,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4382,10 +4415,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4397,10 +4430,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4426,13 +4459,13 @@
         <v>2203</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4441,13 +4474,13 @@
         <v>22282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4456,13 +4489,13 @@
         <v>24485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4510,13 @@
         <v>210415</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>190</v>
@@ -4492,13 +4525,13 @@
         <v>197309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>384</v>
@@ -4507,10 +4540,10 @@
         <v>407724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>97</v>
@@ -4581,13 +4614,13 @@
         <v>5112</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -4596,13 +4629,13 @@
         <v>13008</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -4611,13 +4644,13 @@
         <v>18120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4665,13 @@
         <v>268869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -4647,13 +4680,13 @@
         <v>265088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>511</v>
@@ -4662,13 +4695,13 @@
         <v>533957</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,10 +4769,10 @@
         <v>9213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>73</v>
@@ -4751,13 +4784,13 @@
         <v>30706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -4766,13 +4799,13 @@
         <v>39919</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4820,13 @@
         <v>653575</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H23" s="7">
         <v>608</v>
@@ -4802,13 +4835,13 @@
         <v>663147</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
         <v>1217</v>
@@ -4817,13 +4850,13 @@
         <v>1316722</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4924,13 @@
         <v>3996</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4906,13 +4939,13 @@
         <v>26057</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -4921,13 +4954,13 @@
         <v>30053</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4975,13 @@
         <v>774072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7">
         <v>732</v>
@@ -4957,13 +4990,13 @@
         <v>796521</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="M26" s="7">
         <v>1444</v>
@@ -4972,13 +5005,13 @@
         <v>1570593</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5079,13 @@
         <v>41286</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>177</v>
@@ -5061,13 +5094,13 @@
         <v>189757</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M28" s="7">
         <v>217</v>
@@ -5079,10 +5112,10 @@
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5130,13 @@
         <v>3384462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H29" s="7">
         <v>3119</v>
@@ -5112,10 +5145,10 @@
         <v>3365341</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>84</v>
@@ -5124,16 +5157,16 @@
         <v>6287</v>
       </c>
       <c r="N29" s="7">
-        <v>6749803</v>
+        <v>6749804</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,7 +5208,7 @@
         <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6980846</v>
+        <v>6980847</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5213,7 +5246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F5D258-0E6F-46C4-B13E-31CEC0B3732D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F0C9DE-2AB2-4650-8189-CFD1F0E7B0F5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5230,7 +5263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5337,13 +5370,13 @@
         <v>3201</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5352,13 +5385,13 @@
         <v>26046</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5367,13 +5400,13 @@
         <v>29247</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5421,13 @@
         <v>290560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>253</v>
@@ -5403,13 +5436,13 @@
         <v>262657</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>516</v>
@@ -5418,13 +5451,13 @@
         <v>553217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5525,13 @@
         <v>2901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5507,13 +5540,13 @@
         <v>17876</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -5525,7 +5558,7 @@
         <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>75</v>
@@ -5543,13 +5576,13 @@
         <v>499674</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>467</v>
@@ -5558,13 +5591,13 @@
         <v>505208</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>939</v>
@@ -5579,7 +5612,7 @@
         <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5680,13 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5662,13 +5695,13 @@
         <v>12704</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5677,13 +5710,13 @@
         <v>13638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5731,13 @@
         <v>317630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>320</v>
@@ -5713,13 +5746,13 @@
         <v>323605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>654</v>
@@ -5728,13 +5761,13 @@
         <v>641236</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5835,13 @@
         <v>6990</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5817,13 +5850,13 @@
         <v>29300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5835,10 +5868,10 @@
         <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,10 +5886,10 @@
         <v>362974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>41</v>
@@ -5868,13 +5901,13 @@
         <v>357983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>680</v>
@@ -5886,10 +5919,10 @@
         <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5990,13 @@
         <v>4751</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -5972,13 +6005,13 @@
         <v>19123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5987,13 +6020,13 @@
         <v>23874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6041,13 @@
         <v>206470</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -6023,13 +6056,13 @@
         <v>199464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>411</v>
@@ -6038,13 +6071,13 @@
         <v>405934</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6145,13 @@
         <v>5759</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6130,10 +6163,10 @@
         <v>19</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -6142,13 +6175,13 @@
         <v>21984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6196,13 @@
         <v>257364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>248</v>
@@ -6181,10 +6214,10 @@
         <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>502</v>
@@ -6193,13 +6226,13 @@
         <v>514254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6300,13 @@
         <v>14569</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -6282,13 +6315,13 @@
         <v>40156</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -6297,13 +6330,13 @@
         <v>54725</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6351,13 @@
         <v>641989</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>609</v>
@@ -6333,10 +6366,10 @@
         <v>651138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>168</v>
@@ -6348,13 +6381,13 @@
         <v>1293127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6455,13 @@
         <v>8769</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -6437,13 +6470,13 @@
         <v>33268</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -6452,13 +6485,13 @@
         <v>42038</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6506,13 @@
         <v>769814</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H26" s="7">
         <v>726</v>
@@ -6488,13 +6521,13 @@
         <v>792899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>1467</v>
@@ -6503,13 +6536,13 @@
         <v>1562712</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6610,13 @@
         <v>47875</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>178</v>
@@ -6592,13 +6625,13 @@
         <v>194699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="M28" s="7">
         <v>224</v>
@@ -6607,13 +6640,13 @@
         <v>242574</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6661,13 @@
         <v>3346475</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>3160</v>
@@ -6643,13 +6676,13 @@
         <v>3349843</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M29" s="7">
         <v>6345</v>
@@ -6658,13 +6691,13 @@
         <v>6696318</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,7 +6777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9879C-B9F3-442E-B926-0711D7EFB6DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D216385-F635-4F34-A11F-833452201826}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6761,7 +6794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6865,46 +6898,46 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>9483</v>
+        <v>11552</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>442</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>30204</v>
+        <v>32080</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>39687</v>
+        <v>43632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,46 +6949,46 @@
         <v>321</v>
       </c>
       <c r="D5" s="7">
-        <v>250815</v>
+        <v>299891</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="H5" s="7">
         <v>476</v>
       </c>
       <c r="I5" s="7">
-        <v>241199</v>
+        <v>257555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="M5" s="7">
         <v>797</v>
       </c>
       <c r="N5" s="7">
-        <v>492013</v>
+        <v>557445</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,7 +7000,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6982,7 +7015,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6997,7 +7030,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7020,46 +7053,46 @@
         <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>34814</v>
+        <v>34413</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="H7" s="7">
         <v>95</v>
       </c>
       <c r="I7" s="7">
-        <v>77884</v>
+        <v>72285</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
       </c>
       <c r="N7" s="7">
-        <v>112698</v>
+        <v>106698</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,46 +7104,46 @@
         <v>354</v>
       </c>
       <c r="D8" s="7">
-        <v>483413</v>
+        <v>482980</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H8" s="7">
         <v>620</v>
       </c>
       <c r="I8" s="7">
-        <v>475160</v>
+        <v>441271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M8" s="7">
         <v>974</v>
       </c>
       <c r="N8" s="7">
-        <v>958573</v>
+        <v>924251</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,7 +7155,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7137,7 +7170,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553044</v>
+        <v>513556</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7152,7 +7185,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071271</v>
+        <v>1030949</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7175,46 +7208,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>15683</v>
+        <v>15186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>465</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>45376</v>
+        <v>42549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>61059</v>
+        <v>57735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>472</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,46 +7259,46 @@
         <v>341</v>
       </c>
       <c r="D11" s="7">
-        <v>306397</v>
+        <v>300699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>474</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7">
         <v>472</v>
       </c>
       <c r="I11" s="7">
-        <v>327908</v>
+        <v>306579</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
       </c>
       <c r="N11" s="7">
-        <v>634305</v>
+        <v>607278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>482</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7310,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>322080</v>
+        <v>315885</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7292,7 +7325,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7307,7 +7340,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695364</v>
+        <v>665013</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7330,46 +7363,46 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>7651</v>
+        <v>7258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>489</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>26880</v>
+        <v>24668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>492</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>34531</v>
+        <v>31926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,46 +7414,46 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>314589</v>
+        <v>305299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>498</v>
       </c>
       <c r="H14" s="7">
         <v>552</v>
       </c>
       <c r="I14" s="7">
-        <v>401676</v>
+        <v>451050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
       </c>
       <c r="N14" s="7">
-        <v>716265</v>
+        <v>756348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,7 +7465,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7447,7 +7480,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7462,7 +7495,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7485,46 +7518,46 @@
         <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>10701</v>
+        <v>9703</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>505</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>506</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
       </c>
       <c r="I16" s="7">
-        <v>27909</v>
+        <v>25420</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>38610</v>
+        <v>35123</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>510</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,46 +7569,46 @@
         <v>265</v>
       </c>
       <c r="D17" s="7">
-        <v>186047</v>
+        <v>169039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>515</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
       </c>
       <c r="I17" s="7">
-        <v>203587</v>
+        <v>182854</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="M17" s="7">
         <v>699</v>
       </c>
       <c r="N17" s="7">
-        <v>389634</v>
+        <v>351893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>519</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,7 +7620,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7602,7 +7635,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7617,7 +7650,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7640,46 +7673,46 @@
         <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>17983</v>
+        <v>17301</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
       </c>
       <c r="I19" s="7">
-        <v>40306</v>
+        <v>37513</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
       </c>
       <c r="N19" s="7">
-        <v>58289</v>
+        <v>54814</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,46 +7724,46 @@
         <v>345</v>
       </c>
       <c r="D20" s="7">
-        <v>259240</v>
+        <v>252335</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
         <v>389</v>
       </c>
       <c r="I20" s="7">
-        <v>234599</v>
+        <v>218874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
         <v>734</v>
       </c>
       <c r="N20" s="7">
-        <v>493838</v>
+        <v>471209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,7 +7775,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7757,7 +7790,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7772,7 +7805,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7795,46 +7828,46 @@
         <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>47913</v>
+        <v>47641</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
       </c>
       <c r="I22" s="7">
-        <v>117800</v>
+        <v>109286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
       </c>
       <c r="N22" s="7">
-        <v>165713</v>
+        <v>156927</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,46 +7879,46 @@
         <v>556</v>
       </c>
       <c r="D23" s="7">
-        <v>577961</v>
+        <v>574863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="H23" s="7">
         <v>792</v>
       </c>
       <c r="I23" s="7">
-        <v>684053</v>
+        <v>737793</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="M23" s="7">
         <v>1348</v>
       </c>
       <c r="N23" s="7">
-        <v>1262013</v>
+        <v>1312657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,7 +7930,7 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>625874</v>
+        <v>622504</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7912,7 +7945,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>801853</v>
+        <v>847079</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7927,7 +7960,7 @@
         <v>1553</v>
       </c>
       <c r="N24" s="7">
-        <v>1427726</v>
+        <v>1469584</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7950,46 +7983,46 @@
         <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>11446</v>
+        <v>9648</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
       </c>
       <c r="I25" s="7">
-        <v>52027</v>
+        <v>42323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>546</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
       </c>
       <c r="N25" s="7">
-        <v>63473</v>
+        <v>51971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>547</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>548</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,46 +8034,46 @@
         <v>751</v>
       </c>
       <c r="D26" s="7">
-        <v>847982</v>
+        <v>919072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>549</v>
+        <v>240</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
         <v>1005</v>
       </c>
       <c r="I26" s="7">
-        <v>813645</v>
+        <v>673069</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="M26" s="7">
         <v>1756</v>
       </c>
       <c r="N26" s="7">
-        <v>1661627</v>
+        <v>1592141</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>555</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>556</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,7 +8085,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8067,7 +8100,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8082,7 +8115,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8105,46 +8138,46 @@
         <v>156</v>
       </c>
       <c r="D28" s="7">
-        <v>155675</v>
+        <v>152702</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="H28" s="7">
         <v>615</v>
       </c>
       <c r="I28" s="7">
-        <v>418386</v>
+        <v>386125</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>560</v>
+        <v>479</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="M28" s="7">
         <v>771</v>
       </c>
       <c r="N28" s="7">
-        <v>574061</v>
+        <v>538827</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,46 +8189,46 @@
         <v>3216</v>
       </c>
       <c r="D29" s="7">
-        <v>3226442</v>
+        <v>3304178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="H29" s="7">
         <v>4740</v>
       </c>
       <c r="I29" s="7">
-        <v>3381826</v>
+        <v>3269043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>569</v>
+        <v>486</v>
       </c>
       <c r="M29" s="7">
         <v>7956</v>
       </c>
       <c r="N29" s="7">
-        <v>6608267</v>
+        <v>6573221</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8207,7 +8240,7 @@
         <v>3372</v>
       </c>
       <c r="D30" s="7">
-        <v>3382117</v>
+        <v>3456880</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8222,7 +8255,7 @@
         <v>5355</v>
       </c>
       <c r="I30" s="7">
-        <v>3800212</v>
+        <v>3655168</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8237,7 +8270,7 @@
         <v>8727</v>
       </c>
       <c r="N30" s="7">
-        <v>7182328</v>
+        <v>7112048</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
